--- a/García Sánchez Magda Bexabe 20212.xlsx
+++ b/García Sánchez Magda Bexabe 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1586">
   <si>
     <t>NC</t>
   </si>
@@ -4357,6 +4357,9 @@
     <t>IXTLA</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>ESTRELLA</t>
   </si>
   <si>
@@ -4393,12 +4396,12 @@
     <t>EDGAR DANIEL</t>
   </si>
   <si>
+    <t>JESUS</t>
+  </si>
+  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
@@ -4450,6 +4453,9 @@
     <t>danycraft111@gmail.com</t>
   </si>
   <si>
+    <t>jesushernandezsarmiento108@gmail.com</t>
+  </si>
+  <si>
     <t>evelynldj@gmail.com</t>
   </si>
   <si>
@@ -4519,6 +4525,9 @@
     <t>2721859278</t>
   </si>
   <si>
+    <t>2722146369</t>
+  </si>
+  <si>
     <t>2721972074</t>
   </si>
   <si>
@@ -4616,6 +4625,9 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>MALDONADO LÓPEZ TETLA</t>
@@ -12079,7 +12091,7 @@
         <v>1338</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -12578,7 +12590,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12639,22 +12651,22 @@
         <v>1438</v>
       </c>
       <c r="D2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="H2" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="I2" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="J2" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -12671,22 +12683,22 @@
         <v>1439</v>
       </c>
       <c r="D3" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E3" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F3" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="H3" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="I3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="J3" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12703,25 +12715,25 @@
         <v>1440</v>
       </c>
       <c r="D4" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E4" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F4" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="G4" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H4" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="I4" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="J4" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -12738,25 +12750,25 @@
         <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E5" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="F5" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="G5" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H5" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="I5" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="J5" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -12773,25 +12785,25 @@
         <v>1441</v>
       </c>
       <c r="D6" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F6" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G6" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="H6" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="I6" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="J6" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12808,25 +12820,25 @@
         <v>1442</v>
       </c>
       <c r="D7" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F7" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="G7" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H7" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="I7" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="J7" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12843,22 +12855,22 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E8" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F8" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="H8" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="I8" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="J8" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -12875,22 +12887,22 @@
         <v>1443</v>
       </c>
       <c r="D9" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E9" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F9" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="H9" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="I9" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="J9" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -12907,25 +12919,25 @@
         <v>1444</v>
       </c>
       <c r="D10" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E10" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="F10" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="G10" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H10" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="I10" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="J10" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -12942,19 +12954,19 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E11" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F11" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="H11" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -12962,133 +12974,133 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>499</v>
+        <v>1445</v>
       </c>
       <c r="D12" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E12" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="F12" t="s">
-        <v>1499</v>
+        <v>1501</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1501</v>
       </c>
       <c r="H12" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="I12" t="s">
-        <v>1553</v>
+        <v>1477</v>
       </c>
       <c r="J12" t="s">
-        <v>1572</v>
+        <v>1501</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>1432</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>1445</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E13" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F13" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="H13" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="I13" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="J13" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>1446</v>
       </c>
       <c r="D14" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E14" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="F14" t="s">
-        <v>1501</v>
+        <v>1503</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1519</v>
       </c>
       <c r="H14" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="I14" t="s">
-        <v>1478</v>
+        <v>1558</v>
       </c>
       <c r="J14" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
         <v>1460</v>
       </c>
       <c r="E15" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F15" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H15" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="I15" t="s">
-        <v>1555</v>
+        <v>1480</v>
       </c>
       <c r="J15" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -13096,139 +13108,139 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920352</v>
+        <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>1434</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>1461</v>
       </c>
       <c r="E16" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F16" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="G16" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="H16" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="I16" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="J16" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920353</v>
+        <v>20330051920352</v>
       </c>
       <c r="B17" t="s">
-        <v>1022</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="D17" t="s">
         <v>1462</v>
       </c>
       <c r="E17" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="F17" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="G17" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H17" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="I17" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="J17" t="s">
-        <v>1518</v>
+        <v>1580</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920354</v>
+        <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>1022</v>
       </c>
       <c r="C18" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>1463</v>
       </c>
       <c r="E18" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F18" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="G18" t="s">
-        <v>1505</v>
+        <v>1521</v>
       </c>
       <c r="H18" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="I18" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="J18" t="s">
-        <v>1577</v>
+        <v>1521</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920355</v>
+        <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>1435</v>
+        <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="E19" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F19" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="G19" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="H19" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="I19" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="J19" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -13236,98 +13248,101 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920382</v>
+        <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>1435</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="E20" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="F20" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="G20" t="s">
-        <v>1507</v>
+        <v>1522</v>
       </c>
       <c r="H20" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="I20" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="J20" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330050470596</v>
+        <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="E21" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F21" t="s">
-        <v>1508</v>
+        <v>1510</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1510</v>
       </c>
       <c r="H21" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="I21" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="J21" t="s">
-        <v>1508</v>
+        <v>1583</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>1436</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>1446</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1278</v>
+        <v>1465</v>
       </c>
       <c r="E22" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F22" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="H22" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="I22" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="J22" t="s">
-        <v>1580</v>
+        <v>1511</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -13335,71 +13350,103 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>1447</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>1278</v>
       </c>
       <c r="E23" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="F23" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="H23" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="I23" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="J23" t="s">
-        <v>1510</v>
+        <v>1584</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
+        <v>20330051920357</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
         <v>20330051920383</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1564</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K24">
+      <c r="D25" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>

--- a/García Sánchez Magda Bexabe 20212.xlsx
+++ b/García Sánchez Magda Bexabe 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1580">
   <si>
     <t>NC</t>
   </si>
@@ -3877,9 +3877,6 @@
     <t>CRISTINA KARELY</t>
   </si>
   <si>
-    <t>NATALIE</t>
-  </si>
-  <si>
     <t>DARLET VICTORIA</t>
   </si>
   <si>
@@ -3949,9 +3946,6 @@
     <t>garaydelgado80@gmail.com</t>
   </si>
   <si>
-    <t>natigap48@gmail.com</t>
-  </si>
-  <si>
     <t>darletvictoriagarciarodriguez@gmail.com</t>
   </si>
   <si>
@@ -4030,9 +4024,6 @@
     <t>2721200463</t>
   </si>
   <si>
-    <t>2722018659</t>
-  </si>
-  <si>
     <t>2727212047</t>
   </si>
   <si>
@@ -4102,9 +4093,6 @@
     <t>2721060576</t>
   </si>
   <si>
-    <t>2721443309</t>
-  </si>
-  <si>
     <t>2711036218</t>
   </si>
   <si>
@@ -4159,9 +4147,6 @@
     <t>JACQUELIN DELGADO POLITO</t>
   </si>
   <si>
-    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
-  </si>
-  <si>
     <t>RUTH BAUTISTA APARICIO</t>
   </si>
   <si>
@@ -4280,9 +4265,6 @@
   </si>
   <si>
     <t>2727839804</t>
-  </si>
-  <si>
-    <t>2721349831</t>
   </si>
   <si>
     <t>2711036278</t>
@@ -11619,7 +11601,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11683,19 +11665,19 @@
         <v>1278</v>
       </c>
       <c r="E2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="H2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="J2" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11715,19 +11697,19 @@
         <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="H3" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="J3" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11747,16 +11729,16 @@
         <v>1279</v>
       </c>
       <c r="E4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G4" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="H4" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="J4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11776,19 +11758,19 @@
         <v>1280</v>
       </c>
       <c r="E5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="H5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="I5" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="J5" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11808,19 +11790,19 @@
         <v>1281</v>
       </c>
       <c r="E6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H6" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I6" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="J6" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11840,22 +11822,22 @@
         <v>1282</v>
       </c>
       <c r="E7" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G7" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H7" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="I7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="J7" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11875,22 +11857,22 @@
         <v>1283</v>
       </c>
       <c r="E8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F8" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G8" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="H8" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I8" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="J8" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11910,22 +11892,22 @@
         <v>1284</v>
       </c>
       <c r="E9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G9" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="H9" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I9" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="J9" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11945,22 +11927,22 @@
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G10" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H10" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="I10" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="J10" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11968,31 +11950,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920120</v>
+        <v>21330051920340</v>
       </c>
       <c r="B11" t="s">
         <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
         <v>1285</v>
       </c>
       <c r="E11" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1336</v>
+        <v>1308</v>
       </c>
       <c r="G11" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="H11" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="J11" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -12000,28 +11979,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>1286</v>
       </c>
       <c r="E12" t="s">
-        <v>1310</v>
+        <v>1309</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1334</v>
       </c>
       <c r="G12" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="H12" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J12" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12029,31 +12011,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920341</v>
+        <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>1002</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>710</v>
       </c>
       <c r="D13" t="s">
         <v>1287</v>
       </c>
       <c r="E13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F13" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G13" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="H13" t="s">
-        <v>1381</v>
+        <v>1377</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1398</v>
       </c>
       <c r="J13" t="s">
-        <v>1422</v>
+        <v>1335</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -12061,95 +12046,92 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920342</v>
+        <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>1002</v>
       </c>
       <c r="C14" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="D14" t="s">
-        <v>1288</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F14" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="H14" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
       <c r="J14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B15" t="s">
-        <v>1002</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>720</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>1288</v>
       </c>
       <c r="E15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="H15" t="s">
-        <v>1383</v>
+        <v>1379</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1399</v>
       </c>
       <c r="J15" t="s">
-        <v>1339</v>
+        <v>1417</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>1289</v>
       </c>
       <c r="E16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F16" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H16" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="I16" t="s">
-        <v>1404</v>
+        <v>1313</v>
       </c>
       <c r="J16" t="s">
-        <v>1423</v>
+        <v>1338</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -12157,31 +12139,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>1270</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1290</v>
+        <v>997</v>
       </c>
       <c r="E17" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F17" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="H17" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="I17" t="s">
-        <v>1315</v>
+        <v>1400</v>
       </c>
       <c r="J17" t="s">
-        <v>1341</v>
+        <v>1418</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -12189,63 +12171,66 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B18" t="s">
-        <v>1270</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>1003</v>
       </c>
       <c r="D18" t="s">
-        <v>997</v>
+        <v>1290</v>
       </c>
       <c r="E18" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F18" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="H18" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="I18" t="s">
-        <v>1405</v>
+        <v>1315</v>
       </c>
       <c r="J18" t="s">
-        <v>1424</v>
+        <v>1340</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>21330051920347</v>
+        <v>21330051920348</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1003</v>
+        <v>1275</v>
       </c>
       <c r="D19" t="s">
         <v>1291</v>
       </c>
       <c r="E19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F19" t="s">
-        <v>1343</v>
+        <v>1341</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1360</v>
       </c>
       <c r="H19" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I19" t="s">
-        <v>1317</v>
+        <v>1401</v>
       </c>
       <c r="J19" t="s">
-        <v>1343</v>
+        <v>1419</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -12253,34 +12238,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920348</v>
+        <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>1010</v>
       </c>
       <c r="C20" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D20" t="s">
         <v>1292</v>
       </c>
       <c r="E20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F20" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1364</v>
+        <v>1342</v>
       </c>
       <c r="H20" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I20" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="J20" t="s">
-        <v>1425</v>
+        <v>1342</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -12288,95 +12270,98 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920349</v>
+        <v>21330051920350</v>
       </c>
       <c r="B21" t="s">
-        <v>1010</v>
+        <v>718</v>
       </c>
       <c r="C21" t="s">
-        <v>1276</v>
+        <v>708</v>
       </c>
       <c r="D21" t="s">
         <v>1293</v>
       </c>
       <c r="E21" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="H21" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I21" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="J21" t="s">
-        <v>1345</v>
+        <v>1420</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920350</v>
+        <v>21330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C22" t="s">
-        <v>708</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E22" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1344</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1361</v>
       </c>
       <c r="H22" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1408</v>
+        <v>1386</v>
       </c>
       <c r="J22" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920149</v>
+        <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>720</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="E23" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G23" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="H23" t="s">
-        <v>1391</v>
+        <v>1387</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1404</v>
       </c>
       <c r="J23" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12384,63 +12369,63 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920351</v>
+        <v>21330051920322</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
         <v>1295</v>
       </c>
       <c r="E24" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1348</v>
+        <v>1321</v>
       </c>
       <c r="G24" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H24" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="J24" t="s">
-        <v>1428</v>
+        <v>1363</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920322</v>
+        <v>21330051920174</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>1296</v>
       </c>
       <c r="E25" t="s">
-        <v>1323</v>
+        <v>1322</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1346</v>
       </c>
       <c r="G25" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="H25" t="s">
-        <v>1393</v>
+        <v>1389</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1322</v>
       </c>
       <c r="J25" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -12448,138 +12433,103 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>21330051920174</v>
+        <v>21330051920352</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>1277</v>
       </c>
       <c r="D26" t="s">
         <v>1297</v>
       </c>
       <c r="E26" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F26" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G26" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H26" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="I26" t="s">
-        <v>1324</v>
+        <v>1405</v>
       </c>
       <c r="J26" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>1277</v>
+        <v>1023</v>
       </c>
       <c r="D27" t="s">
-        <v>1298</v>
+        <v>755</v>
       </c>
       <c r="E27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F27" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G27" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="H27" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I27" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="J27" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920353</v>
+        <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>1271</v>
       </c>
       <c r="C28" t="s">
-        <v>1023</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>755</v>
+        <v>1298</v>
       </c>
       <c r="E28" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F28" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H28" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I28" t="s">
-        <v>1411</v>
+        <v>1325</v>
       </c>
       <c r="J28" t="s">
-        <v>1351</v>
+        <v>1423</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>21330051920354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1327</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1429</v>
-      </c>
-      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -12645,28 +12595,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="C2" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="D2" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E2" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="F2" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="H2" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="I2" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="J2" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -12680,25 +12630,25 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="D3" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="E3" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="F3" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H3" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="I3" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="J3" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12712,28 +12662,28 @@
         <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="D4" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E4" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="F4" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="G4" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H4" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="I4" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="J4" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -12750,25 +12700,25 @@
         <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="E5" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="F5" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="G5" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H5" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="I5" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="J5" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -12779,31 +12729,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="C6" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="D6" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="E6" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="F6" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="G6" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H6" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="I6" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="J6" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12817,28 +12767,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="D7" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="E7" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="F7" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="G7" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H7" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="I7" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="J7" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12855,22 +12805,22 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="E8" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="F8" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H8" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="I8" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="J8" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -12884,25 +12834,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D9" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="E9" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F9" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="H9" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="I9" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="J9" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -12916,28 +12866,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D10" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="E10" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F10" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="G10" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H10" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="I10" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="J10" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -12954,19 +12904,19 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="E11" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="F11" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="G11" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H11" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -12980,28 +12930,28 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="D12" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="E12" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="F12" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="G12" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="H12" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="I12" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="J12" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -13018,22 +12968,22 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="E13" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="F13" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H13" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="I13" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="J13" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -13044,31 +12994,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="C14" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="D14" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="E14" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="F14" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="G14" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H14" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="I14" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="J14" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13079,28 +13029,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="C15" t="s">
         <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="E15" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="F15" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="H15" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="I15" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="J15" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -13111,31 +13061,31 @@
         <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="E16" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="F16" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="G16" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H16" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="I16" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="J16" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -13152,25 +13102,25 @@
         <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E17" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="F17" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="G17" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="H17" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="I17" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="J17" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -13187,25 +13137,25 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="E18" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="F18" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="G18" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H18" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="I18" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="J18" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -13222,25 +13172,25 @@
         <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="E19" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="F19" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="G19" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H19" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="I19" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="J19" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -13251,31 +13201,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="C20" t="s">
         <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="E20" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="F20" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="G20" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H20" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="I20" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="J20" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -13292,25 +13242,25 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="E21" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="F21" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="G21" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="H21" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="I21" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="J21" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -13327,22 +13277,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="E22" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="F22" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H22" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="I22" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="J22" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -13353,28 +13303,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="C23" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="D23" t="s">
         <v>1278</v>
       </c>
       <c r="E23" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="F23" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H23" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="I23" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="J23" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -13385,7 +13335,7 @@
         <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="C24" t="s">
         <v>314</v>
@@ -13394,22 +13344,22 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="F24" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="G24" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="H24" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="I24" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="J24" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -13426,25 +13376,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="E25" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="F25" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="G25" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H25" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="I25" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="J25" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="K25">
         <v>1</v>

--- a/García Sánchez Magda Bexabe 20212.xlsx
+++ b/García Sánchez Magda Bexabe 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1582">
   <si>
     <t>NC</t>
   </si>
@@ -2191,6 +2191,9 @@
     <t>ROJAS</t>
   </si>
   <si>
+    <t>RUBALCAVA</t>
+  </si>
+  <si>
     <t>TERCERO</t>
   </si>
   <si>
@@ -2351,6 +2354,9 @@
   </si>
   <si>
     <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>BRIANDA RENEE</t>
   </si>
   <si>
     <t>ISAI</t>
@@ -8622,7 +8628,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8680,28 +8686,28 @@
         <v>704</v>
       </c>
       <c r="C2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="I2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8718,22 +8724,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8747,28 +8753,28 @@
         <v>706</v>
       </c>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8782,28 +8788,28 @@
         <v>707</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E5" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G5" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H5" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="I5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J5" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8820,22 +8826,22 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H6" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8852,25 +8858,25 @@
         <v>514</v>
       </c>
       <c r="D7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="I7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8884,28 +8890,28 @@
         <v>710</v>
       </c>
       <c r="C8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="H8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I8" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -8919,25 +8925,25 @@
         <v>515</v>
       </c>
       <c r="C9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="I9" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J9" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8954,19 +8960,19 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J10" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8980,28 +8986,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E11" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F11" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G11" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H11" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="I11" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J11" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9018,25 +9024,25 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E12" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G12" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="I12" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J12" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9050,28 +9056,28 @@
         <v>712</v>
       </c>
       <c r="C13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E13" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G13" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="H13" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="I13" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J13" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9085,25 +9091,25 @@
         <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H14" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I14" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9117,22 +9123,22 @@
         <v>713</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H15" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J15" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9149,22 +9155,22 @@
         <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E16" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H16" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J16" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9181,22 +9187,22 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E17" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I17" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J17" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9210,28 +9216,28 @@
         <v>714</v>
       </c>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E18" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H18" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="I18" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9245,28 +9251,28 @@
         <v>715</v>
       </c>
       <c r="C19" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E19" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G19" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H19" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I19" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J19" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9283,25 +9289,25 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E20" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H20" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="I20" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J20" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9318,22 +9324,22 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E21" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F21" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G21" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H21" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="J21" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9347,28 +9353,28 @@
         <v>516</v>
       </c>
       <c r="C22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E22" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H22" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="I22" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J22" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9385,22 +9391,22 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E23" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F23" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H23" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J23" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9417,22 +9423,22 @@
         <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E24" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F24" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H24" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I24" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J24" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9446,25 +9452,25 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E25" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F25" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H25" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="I25" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J25" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9481,22 +9487,22 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E26" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H26" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="I26" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J26" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9510,25 +9516,25 @@
         <v>719</v>
       </c>
       <c r="C27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F27" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H27" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="I27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J27" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9545,22 +9551,22 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F28" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G28" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H28" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="J28" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9577,22 +9583,22 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H29" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="I29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J29" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9609,25 +9615,25 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E30" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H30" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I30" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J30" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9644,22 +9650,22 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E31" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F31" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H31" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="I31" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J31" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9673,28 +9679,28 @@
         <v>722</v>
       </c>
       <c r="C32" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D32" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E32" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F32" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G32" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H32" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I32" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J32" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9711,25 +9717,25 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G33" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="H33" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="I33" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9746,25 +9752,25 @@
         <v>713</v>
       </c>
       <c r="D34" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E34" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F34" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G34" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H34" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I34" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J34" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9772,63 +9778,48 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920279</v>
+        <v>21330051420149</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>723</v>
       </c>
       <c r="C35" t="s">
-        <v>744</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>777</v>
-      </c>
-      <c r="E35" t="s">
-        <v>820</v>
-      </c>
-      <c r="F35" t="s">
-        <v>861</v>
-      </c>
-      <c r="G35" t="s">
-        <v>887</v>
-      </c>
-      <c r="H35" t="s">
-        <v>926</v>
-      </c>
-      <c r="I35" t="s">
-        <v>959</v>
-      </c>
-      <c r="J35" t="s">
-        <v>988</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920280</v>
+        <v>21330051920279</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="D36" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E36" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="F36" t="s">
+        <v>863</v>
       </c>
       <c r="G36" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H36" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="I36" t="s">
+        <v>961</v>
       </c>
       <c r="J36" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9836,203 +9827,197 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920280</v>
       </c>
       <c r="B37" t="s">
-        <v>723</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="D37" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E37" t="s">
-        <v>822</v>
-      </c>
-      <c r="F37" t="s">
-        <v>862</v>
+        <v>823</v>
+      </c>
+      <c r="G37" t="s">
+        <v>890</v>
       </c>
       <c r="H37" t="s">
-        <v>928</v>
-      </c>
-      <c r="I37" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="J37" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920282</v>
       </c>
       <c r="B38" t="s">
         <v>724</v>
       </c>
       <c r="C38" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="D38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F38" t="s">
-        <v>863</v>
-      </c>
-      <c r="G38" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="H38" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="I38" t="s">
+        <v>962</v>
       </c>
       <c r="J38" t="s">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920283</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>725</v>
       </c>
       <c r="C39" t="s">
-        <v>512</v>
+        <v>730</v>
       </c>
       <c r="D39" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E39" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F39" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G39" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H39" t="s">
-        <v>930</v>
-      </c>
-      <c r="I39" t="s">
-        <v>824</v>
+        <v>931</v>
       </c>
       <c r="J39" t="s">
-        <v>991</v>
+        <v>865</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920284</v>
       </c>
       <c r="B40" t="s">
-        <v>725</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>719</v>
+        <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E40" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F40" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G40" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H40" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I40" t="s">
-        <v>961</v>
+        <v>826</v>
       </c>
       <c r="J40" t="s">
-        <v>865</v>
+        <v>993</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920285</v>
       </c>
       <c r="B41" t="s">
         <v>726</v>
       </c>
       <c r="C41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E41" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F41" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G41" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="H41" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I41" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J41" t="s">
-        <v>992</v>
+        <v>867</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>727</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>718</v>
       </c>
       <c r="D42" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E42" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H42" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I42" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J42" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -10040,62 +10025,97 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>727</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E43" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F43" t="s">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="G43" t="s">
+        <v>869</v>
       </c>
       <c r="H43" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I43" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J43" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
         <v>728</v>
       </c>
       <c r="C44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>787</v>
+      </c>
+      <c r="E44" t="s">
+        <v>830</v>
+      </c>
+      <c r="F44" t="s">
+        <v>870</v>
+      </c>
+      <c r="H44" t="s">
+        <v>936</v>
+      </c>
+      <c r="I44" t="s">
+        <v>966</v>
+      </c>
+      <c r="J44" t="s">
+        <v>996</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>21330051920288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>729</v>
+      </c>
+      <c r="C45" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
-        <v>786</v>
-      </c>
-      <c r="E44" t="s">
-        <v>829</v>
-      </c>
-      <c r="G44" t="s">
-        <v>892</v>
-      </c>
-      <c r="H44" t="s">
-        <v>935</v>
-      </c>
-      <c r="J44" t="s">
-        <v>995</v>
-      </c>
-      <c r="K44">
+      <c r="D45" t="s">
+        <v>788</v>
+      </c>
+      <c r="E45" t="s">
+        <v>831</v>
+      </c>
+      <c r="G45" t="s">
+        <v>894</v>
+      </c>
+      <c r="H45" t="s">
+        <v>937</v>
+      </c>
+      <c r="J45" t="s">
+        <v>997</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
@@ -10161,25 +10181,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="J2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10196,22 +10216,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H3" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I3" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="J3" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10222,25 +10242,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J4" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10251,31 +10271,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D5" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10289,25 +10309,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D6" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E6" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F6" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H6" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I6" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="J6" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10318,31 +10338,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E7" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G7" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H7" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I7" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10359,19 +10379,19 @@
         <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F8" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H8" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="J8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10382,28 +10402,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D9" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E9" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H9" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I9" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10417,22 +10437,22 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E10" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G10" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H10" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="J10" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10449,25 +10469,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E11" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G11" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H11" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I11" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J11" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10484,25 +10504,25 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E12" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F12" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G12" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H12" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I12" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J12" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10513,28 +10533,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="F13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H13" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="I13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="J13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10548,22 +10568,22 @@
         <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D14" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E14" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="G14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H14" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="J14" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10577,28 +10597,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D15" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E15" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F15" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G15" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H15" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="I15" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J15" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10612,28 +10632,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D16" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E16" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G16" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H16" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="I16" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J16" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10644,28 +10664,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E17" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H17" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="I17" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J17" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10676,28 +10696,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E18" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F18" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H18" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="J18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10708,25 +10728,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C19" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D19" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E19" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H19" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="J19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10743,22 +10763,22 @@
         <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E20" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H20" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="I20" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10775,22 +10795,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E21" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F21" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H21" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="I21" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J21" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10804,25 +10824,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D22" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E22" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F22" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G22" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H22" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J22" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10833,31 +10853,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F23" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G23" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H23" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="I23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J23" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10868,28 +10888,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C24" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D24" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E24" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F24" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H24" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="I24" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J24" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10903,28 +10923,28 @@
         <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D25" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E25" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H25" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I25" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -10941,25 +10961,25 @@
         <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G26" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="J26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10973,25 +10993,25 @@
         <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D27" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E27" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H27" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -11008,22 +11028,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E28" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F28" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G28" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H28" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J28" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11034,28 +11054,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C29" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F29" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H29" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="I29" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J29" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -11066,28 +11086,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C30" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D30" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E30" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F30" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G30" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H30" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J30" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -11098,31 +11118,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C31" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D31" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E31" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F31" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G31" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H31" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="I31" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J31" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11136,25 +11156,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D32" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E32" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F32" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H32" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="I32" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J32" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11174,19 +11194,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F33" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H33" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I33" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J33" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11197,28 +11217,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C34" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D34" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E34" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F34" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G34" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H34" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J34" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11232,25 +11252,25 @@
         <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D35" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E35" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F35" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G35" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H35" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="J35" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -11267,22 +11287,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E36" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G36" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H36" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J36" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11296,25 +11316,25 @@
         <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D37" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E37" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F37" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H37" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="I37" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J37" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11331,25 +11351,25 @@
         <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E38" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F38" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G38" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H38" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="I38" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="J38" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11366,25 +11386,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E39" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G39" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H39" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I39" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J39" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11398,28 +11418,28 @@
         <v>722</v>
       </c>
       <c r="C40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E40" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F40" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G40" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H40" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I40" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J40" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11436,22 +11456,22 @@
         <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E41" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H41" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I41" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11468,22 +11488,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E42" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F42" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H42" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I42" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J42" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11497,28 +11517,28 @@
         <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D43" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E43" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F43" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G43" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H43" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I43" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J43" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11535,25 +11555,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E44" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G44" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H44" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I44" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11564,31 +11584,31 @@
         <v>21330051920330</v>
       </c>
       <c r="B45" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C45" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D45" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F45" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G45" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H45" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="J45" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11656,28 +11676,28 @@
         <v>21330051920331</v>
       </c>
       <c r="B2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F2" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="H2" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="J2" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11688,28 +11708,28 @@
         <v>21330051920332</v>
       </c>
       <c r="B3" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C3" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D3" t="s">
         <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F3" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="G3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="H3" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="J3" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11726,19 +11746,19 @@
         <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E4" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="G4" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="H4" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="J4" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11749,28 +11769,28 @@
         <v>21330051920334</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
         <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F5" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="H5" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="I5" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="J5" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11787,22 +11807,22 @@
         <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F6" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="H6" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I6" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="J6" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11813,31 +11833,31 @@
         <v>21330051920137</v>
       </c>
       <c r="B7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E7" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F7" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G7" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="H7" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="I7" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J7" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11848,31 +11868,31 @@
         <v>21330051920336</v>
       </c>
       <c r="B8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E8" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="G8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="H8" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="I8" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J8" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11889,25 +11909,25 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E9" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F9" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G9" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H9" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I9" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="J9" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11918,31 +11938,31 @@
         <v>21330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C10" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D10" t="s">
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F10" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G10" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="H10" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="I10" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J10" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11959,19 +11979,19 @@
         <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E11" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G11" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="H11" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="J11" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11988,22 +12008,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E12" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F12" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G12" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H12" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="J12" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12014,31 +12034,31 @@
         <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C13" t="s">
         <v>710</v>
       </c>
       <c r="D13" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E13" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H13" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="I13" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="J13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -12049,7 +12069,7 @@
         <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C14" t="s">
         <v>720</v>
@@ -12058,16 +12078,16 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H14" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="J14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -12084,22 +12104,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E15" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F15" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="H15" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="I15" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="J15" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -12116,22 +12136,22 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E16" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H16" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="I16" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="J16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -12142,28 +12162,28 @@
         <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E17" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F17" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H17" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="I17" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="J17" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -12177,25 +12197,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D18" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E18" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F18" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="H18" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="I18" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="J18" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -12209,28 +12229,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D19" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E19" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F19" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="H19" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="I19" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="J19" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -12241,28 +12261,28 @@
         <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C20" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D20" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E20" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F20" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="H20" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="I20" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J20" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -12279,22 +12299,22 @@
         <v>708</v>
       </c>
       <c r="D21" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E21" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F21" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="H21" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="I21" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="J21" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -12311,22 +12331,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E22" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F22" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G22" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H22" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="J22" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12343,25 +12363,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E23" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F23" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="H23" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="I23" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="J23" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12378,19 +12398,19 @@
         <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E24" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="G24" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H24" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J24" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -12407,25 +12427,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E25" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F25" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G25" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="H25" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="I25" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="J25" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -12439,28 +12459,28 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D26" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E26" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F26" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G26" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H26" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="I26" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="J26" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -12474,28 +12494,28 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D27" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E27" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F27" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G27" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="H27" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="I27" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="J27" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -12506,28 +12526,28 @@
         <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C28" t="s">
         <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E28" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F28" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="H28" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="I28" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="J28" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -12595,28 +12615,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="D2" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="E2" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="F2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="H2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="I2" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="J2" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -12630,25 +12650,25 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D3" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="E3" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F3" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="H3" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="I3" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="J3" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12662,28 +12682,28 @@
         <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="D4" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="E4" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="F4" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="G4" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="H4" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="I4" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="J4" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -12694,31 +12714,31 @@
         <v>20330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C5" t="s">
         <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E5" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F5" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="G5" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="H5" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="I5" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="J5" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -12729,31 +12749,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C6" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D6" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="E6" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F6" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="G6" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="H6" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="I6" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="J6" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12767,28 +12787,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D7" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="E7" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="F7" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="G7" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="H7" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="I7" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="J7" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12805,22 +12825,22 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="E8" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F8" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="H8" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="I8" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="J8" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -12834,25 +12854,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D9" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="E9" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F9" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="H9" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="I9" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="J9" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -12866,28 +12886,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D10" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E10" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="F10" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="G10" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="H10" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="I10" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J10" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -12904,19 +12924,19 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="E11" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="F11" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="G11" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H11" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -12930,28 +12950,28 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="D12" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E12" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F12" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="G12" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="H12" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="I12" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="J12" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12968,22 +12988,22 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="E13" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="F13" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="H13" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="I13" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="J13" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -12994,31 +13014,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C14" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D14" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E14" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="F14" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="G14" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="H14" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="I14" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="J14" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13029,28 +13049,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C15" t="s">
         <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E15" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="F15" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="H15" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="I15" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="J15" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -13061,31 +13081,31 @@
         <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="E16" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F16" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="G16" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="H16" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="I16" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="J16" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -13102,25 +13122,25 @@
         <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="E17" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="F17" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="G17" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H17" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="I17" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="J17" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -13131,31 +13151,31 @@
         <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E18" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F18" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="G18" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="H18" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="I18" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="J18" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -13172,25 +13192,25 @@
         <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="E19" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F19" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="G19" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="H19" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="I19" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="J19" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -13201,31 +13221,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C20" t="s">
         <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="E20" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F20" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="G20" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="H20" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="I20" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="J20" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -13242,25 +13262,25 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="E21" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F21" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="G21" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H21" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="I21" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J21" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -13277,22 +13297,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="E22" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F22" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="H22" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="I22" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="J22" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -13303,28 +13323,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C23" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D23" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E23" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="F23" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="H23" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="I23" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J23" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -13335,7 +13355,7 @@
         <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C24" t="s">
         <v>314</v>
@@ -13344,22 +13364,22 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="F24" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="G24" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H24" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="I24" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="J24" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -13376,25 +13396,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E25" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F25" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="G25" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H25" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="I25" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="J25" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="K25">
         <v>1</v>

--- a/García Sánchez Magda Bexabe 20212.xlsx
+++ b/García Sánchez Magda Bexabe 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1584">
   <si>
     <t>NC</t>
   </si>
@@ -2488,6 +2488,9 @@
     <t>arantxitautam@gmail.com</t>
   </si>
   <si>
+    <t>#N/D</t>
+  </si>
+  <si>
     <t>sanjuanarauzisai@gmail.com</t>
   </si>
   <si>
@@ -2804,6 +2807,9 @@
   </si>
   <si>
     <t>HAIDE JIMÉNEZ CERÓN</t>
+  </si>
+  <si>
+    <t>#N/D #N/D #N/D</t>
   </si>
   <si>
     <t>ARCENIA ARAUZ ROSAS</t>
@@ -7021,7 +7027,7 @@
         <v>484</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8695,19 +8701,19 @@
         <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I2" t="s">
         <v>789</v>
       </c>
       <c r="J2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8730,16 +8736,16 @@
         <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8762,19 +8768,19 @@
         <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8797,19 +8803,19 @@
         <v>792</v>
       </c>
       <c r="F5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J5" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8832,16 +8838,16 @@
         <v>793</v>
       </c>
       <c r="F6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8864,19 +8870,19 @@
         <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I7" t="s">
         <v>794</v>
       </c>
       <c r="J7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8899,19 +8905,19 @@
         <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I8" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -8934,16 +8940,16 @@
         <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I9" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J9" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8966,13 +8972,13 @@
         <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J10" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8995,19 +9001,19 @@
         <v>798</v>
       </c>
       <c r="F11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H11" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I11" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9030,19 +9036,19 @@
         <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H12" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I12" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J12" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -9065,19 +9071,19 @@
         <v>800</v>
       </c>
       <c r="F13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I13" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J13" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9100,16 +9106,16 @@
         <v>801</v>
       </c>
       <c r="F14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H14" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I14" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9132,13 +9138,13 @@
         <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H15" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="J15" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9161,16 +9167,16 @@
         <v>803</v>
       </c>
       <c r="F16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="J16" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9193,16 +9199,16 @@
         <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H17" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I17" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9225,19 +9231,19 @@
         <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I18" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9260,19 +9266,19 @@
         <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H19" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I19" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J19" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9295,19 +9301,19 @@
         <v>807</v>
       </c>
       <c r="F20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H20" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="I20" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J20" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9330,16 +9336,16 @@
         <v>808</v>
       </c>
       <c r="F21" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G21" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H21" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J21" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9362,19 +9368,19 @@
         <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I22" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J22" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9397,16 +9403,16 @@
         <v>810</v>
       </c>
       <c r="F23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H23" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I23" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J23" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9429,16 +9435,16 @@
         <v>811</v>
       </c>
       <c r="F24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H24" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I24" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J24" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9461,16 +9467,16 @@
         <v>812</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H25" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I25" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J25" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9493,16 +9499,16 @@
         <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I26" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J26" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9525,16 +9531,16 @@
         <v>814</v>
       </c>
       <c r="F27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H27" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I27" t="s">
         <v>814</v>
       </c>
       <c r="J27" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9557,16 +9563,16 @@
         <v>815</v>
       </c>
       <c r="F28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H28" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="J28" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9589,16 +9595,16 @@
         <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H29" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I29" t="s">
         <v>816</v>
       </c>
       <c r="J29" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9621,19 +9627,19 @@
         <v>817</v>
       </c>
       <c r="F30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H30" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I30" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J30" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9656,16 +9662,16 @@
         <v>818</v>
       </c>
       <c r="F31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H31" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I31" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9688,19 +9694,19 @@
         <v>819</v>
       </c>
       <c r="F32" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G32" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H32" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I32" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J32" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9723,19 +9729,19 @@
         <v>820</v>
       </c>
       <c r="F33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G33" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H33" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I33" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9758,19 +9764,19 @@
         <v>821</v>
       </c>
       <c r="F34" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G34" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H34" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I34" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9789,6 +9795,24 @@
       <c r="D35" t="s">
         <v>778</v>
       </c>
+      <c r="E35" t="s">
+        <v>822</v>
+      </c>
+      <c r="F35" t="s">
+        <v>822</v>
+      </c>
+      <c r="H35" t="s">
+        <v>929</v>
+      </c>
+      <c r="I35" t="s">
+        <v>822</v>
+      </c>
+      <c r="J35" t="s">
+        <v>822</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
@@ -9804,22 +9828,22 @@
         <v>779</v>
       </c>
       <c r="E36" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F36" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G36" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H36" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I36" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="J36" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9839,16 +9863,16 @@
         <v>780</v>
       </c>
       <c r="E37" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G37" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H37" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J37" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -9868,19 +9892,19 @@
         <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F38" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H38" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="I38" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="J38" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -9900,19 +9924,19 @@
         <v>782</v>
       </c>
       <c r="E39" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F39" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G39" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H39" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="J39" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -9932,22 +9956,22 @@
         <v>783</v>
       </c>
       <c r="E40" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F40" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G40" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H40" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="I40" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J40" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -9967,22 +9991,22 @@
         <v>784</v>
       </c>
       <c r="E41" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F41" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G41" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H41" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="I41" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="J41" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -10002,22 +10026,22 @@
         <v>785</v>
       </c>
       <c r="E42" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H42" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I42" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J42" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -10037,22 +10061,22 @@
         <v>786</v>
       </c>
       <c r="E43" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F43" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G43" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H43" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I43" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J43" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -10072,19 +10096,19 @@
         <v>787</v>
       </c>
       <c r="E44" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F44" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H44" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="I44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J44" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -10104,16 +10128,16 @@
         <v>788</v>
       </c>
       <c r="E45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G45" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H45" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J45" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -10181,25 +10205,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E2" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10216,22 +10240,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F3" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H3" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I3" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10242,25 +10266,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E4" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F4" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H4" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="J4" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -10271,31 +10295,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H5" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="J5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10309,25 +10333,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D6" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E6" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F6" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H6" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="I6" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J6" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10338,31 +10362,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G7" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H7" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I7" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10379,19 +10403,19 @@
         <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E8" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H8" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="J8" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10402,28 +10426,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C9" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D9" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E9" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="H9" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I9" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -10437,22 +10461,22 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G10" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J10" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10469,25 +10493,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E11" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F11" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G11" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H11" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I11" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J11" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10504,25 +10528,25 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E12" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F12" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G12" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H12" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I12" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J12" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10533,28 +10557,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H13" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="I13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="J13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10568,22 +10592,22 @@
         <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D14" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E14" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H14" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J14" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10597,28 +10621,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D15" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E15" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F15" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H15" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="I15" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10632,28 +10656,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D16" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E16" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F16" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G16" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H16" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="I16" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J16" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10664,28 +10688,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E17" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F17" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H17" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="I17" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J17" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10696,28 +10720,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E18" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F18" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G18" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H18" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="J18" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10728,25 +10752,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C19" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D19" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E19" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H19" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10763,22 +10787,22 @@
         <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E20" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H20" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="I20" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10795,22 +10819,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E21" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F21" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H21" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="I21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J21" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10824,25 +10848,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D22" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E22" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F22" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G22" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H22" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J22" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10853,31 +10877,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F23" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G23" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H23" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="J23" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10888,28 +10912,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C24" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D24" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E24" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F24" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H24" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I24" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J24" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10923,28 +10947,28 @@
         <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D25" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E25" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H25" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="I25" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -10961,25 +10985,25 @@
         <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G26" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H26" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="I26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="J26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10993,25 +11017,25 @@
         <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D27" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E27" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H27" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="J27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -11028,22 +11052,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E28" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F28" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G28" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H28" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J28" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11054,28 +11078,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C29" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F29" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H29" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="I29" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J29" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -11086,28 +11110,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C30" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E30" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F30" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G30" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H30" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="J30" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -11118,31 +11142,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C31" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D31" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E31" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F31" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G31" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H31" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I31" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J31" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11156,25 +11180,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D32" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E32" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F32" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H32" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="I32" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J32" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11194,19 +11218,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F33" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H33" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="I33" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="J33" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11217,28 +11241,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C34" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D34" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E34" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F34" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G34" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H34" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J34" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -11252,25 +11276,25 @@
         <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D35" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E35" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F35" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G35" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H35" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="J35" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -11287,22 +11311,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E36" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F36" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G36" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H36" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J36" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -11316,25 +11340,25 @@
         <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D37" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E37" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H37" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I37" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J37" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -11351,25 +11375,25 @@
         <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E38" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F38" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G38" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H38" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I38" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="J38" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -11386,25 +11410,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E39" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F39" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G39" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H39" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I39" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J39" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -11421,25 +11445,25 @@
         <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E40" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F40" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="G40" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H40" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I40" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J40" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -11456,22 +11480,22 @@
         <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E41" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H41" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I41" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11488,22 +11512,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E42" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F42" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H42" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I42" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J42" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11517,28 +11541,28 @@
         <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D43" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E43" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F43" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G43" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H43" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I43" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="J43" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11555,25 +11579,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F44" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="G44" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="H44" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="I44" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="J44" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11587,28 +11611,28 @@
         <v>732</v>
       </c>
       <c r="C45" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D45" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E45" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F45" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G45" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H45" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="I45" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="J45" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11676,28 +11700,28 @@
         <v>21330051920331</v>
       </c>
       <c r="B2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F2" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G2" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="H2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="J2" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11708,28 +11732,28 @@
         <v>21330051920332</v>
       </c>
       <c r="B3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C3" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D3" t="s">
         <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F3" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="G3" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="H3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="J3" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11746,19 +11770,19 @@
         <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E4" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="G4" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="H4" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="J4" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11769,28 +11793,28 @@
         <v>21330051920334</v>
       </c>
       <c r="B5" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C5" t="s">
         <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E5" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F5" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="H5" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="I5" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J5" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11807,22 +11831,22 @@
         <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E6" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="H6" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="I6" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="J6" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11839,25 +11863,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E7" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G7" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H7" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I7" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J7" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11874,25 +11898,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E8" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G8" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="H8" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="I8" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11909,28 +11933,28 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E9" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G9" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="H9" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="I9" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="J9" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -11938,31 +11962,31 @@
         <v>21330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C10" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D10" t="s">
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G10" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H10" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="I10" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="J10" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11979,19 +12003,19 @@
         <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E11" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G11" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H11" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="J11" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -12008,22 +12032,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E12" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F12" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G12" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="H12" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="J12" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12034,31 +12058,31 @@
         <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C13" t="s">
         <v>710</v>
       </c>
       <c r="D13" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E13" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="G13" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H13" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="I13" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="J13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -12069,7 +12093,7 @@
         <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C14" t="s">
         <v>720</v>
@@ -12078,16 +12102,16 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F14" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H14" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="J14" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -12104,22 +12128,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E15" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F15" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H15" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="I15" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="J15" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -12136,22 +12160,22 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E16" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F16" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="H16" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="I16" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="J16" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -12162,28 +12186,28 @@
         <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E17" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F17" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="H17" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="I17" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J17" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -12197,25 +12221,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D18" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E18" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="H18" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="I18" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="J18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -12229,28 +12253,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D19" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E19" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F19" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G19" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="H19" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="I19" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="J19" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -12261,28 +12285,28 @@
         <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C20" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D20" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E20" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F20" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="H20" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="I20" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="J20" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -12299,22 +12323,22 @@
         <v>708</v>
       </c>
       <c r="D21" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E21" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="H21" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="I21" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="J21" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -12331,22 +12355,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E22" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G22" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H22" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J22" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -12363,25 +12387,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E23" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="H23" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="I23" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="J23" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12398,19 +12422,19 @@
         <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E24" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="G24" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H24" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="J24" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -12427,25 +12451,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E25" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F25" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G25" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="H25" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="I25" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="J25" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -12459,28 +12483,28 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D26" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E26" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F26" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G26" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="H26" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="I26" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="J26" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -12494,28 +12518,28 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D27" t="s">
         <v>756</v>
       </c>
       <c r="E27" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F27" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G27" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="H27" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="I27" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="J27" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -12526,28 +12550,28 @@
         <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C28" t="s">
         <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E28" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F28" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="H28" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="I28" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="J28" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -12615,28 +12639,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="D2" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="E2" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="F2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="H2" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="I2" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="J2" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -12650,25 +12674,25 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D3" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E3" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F3" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="H3" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="I3" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="J3" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -12682,28 +12706,28 @@
         <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D4" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="E4" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F4" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="G4" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="H4" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="I4" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="J4" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -12720,25 +12744,25 @@
         <v>514</v>
       </c>
       <c r="D5" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="E5" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="F5" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="G5" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H5" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="I5" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="J5" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -12749,31 +12773,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C6" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D6" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="E6" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F6" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="G6" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="H6" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="I6" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="J6" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -12787,28 +12811,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="D7" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="E7" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F7" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="G7" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="H7" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="I7" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="J7" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -12825,22 +12849,22 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E8" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="F8" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="H8" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="I8" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="J8" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -12854,25 +12878,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="D9" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="E9" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="F9" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="H9" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="I9" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="J9" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -12886,28 +12910,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="D10" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E10" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="G10" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="H10" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="I10" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="J10" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -12924,22 +12948,22 @@
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="E11" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="F11" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="G11" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="H11" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12950,28 +12974,28 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D12" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E12" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="F12" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="G12" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="H12" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="I12" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="J12" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -12988,22 +13012,22 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="E13" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="F13" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="H13" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="I13" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="J13" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -13014,31 +13038,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="C14" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D14" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E14" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F14" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="G14" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="H14" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="I14" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="J14" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -13049,28 +13073,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C15" t="s">
         <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="E15" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="F15" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="H15" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="I15" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="J15" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -13081,31 +13105,31 @@
         <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E16" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F16" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="G16" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="H16" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="I16" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="J16" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -13122,25 +13146,25 @@
         <v>294</v>
       </c>
       <c r="D17" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="E17" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F17" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="G17" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="H17" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="I17" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="J17" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -13151,31 +13175,31 @@
         <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="E18" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F18" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="G18" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="H18" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="I18" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="J18" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -13192,25 +13216,25 @@
         <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E19" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F19" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="G19" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="H19" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="I19" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="J19" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -13221,31 +13245,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="C20" t="s">
         <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="E20" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F20" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="G20" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="H20" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="I20" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="J20" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -13262,25 +13286,25 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E21" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="F21" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="G21" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="H21" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="I21" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J21" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -13297,22 +13321,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="E22" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="F22" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="H22" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="I22" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="J22" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -13323,28 +13347,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C23" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D23" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E23" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F23" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="H23" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="I23" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="J23" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -13355,7 +13379,7 @@
         <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="C24" t="s">
         <v>314</v>
@@ -13364,22 +13388,22 @@
         <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="F24" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="G24" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="H24" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="I24" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="J24" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -13396,25 +13420,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="E25" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="F25" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="G25" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="H25" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="I25" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="J25" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="K25">
         <v>1</v>
